--- a/Tarun-annotations/ABC_Q4_2016.xlsx
+++ b/Tarun-annotations/ABC_Q4_2016.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmand\Desktop\CS\VIP\SubjECTive-QA\Tarun-annotations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tmandapati/Desktop/VIP/Annotate/SubjECTive-QA/Tarun-annotations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8027BC3C-585C-4211-BCFD-F0438E6B230B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1B7824-1574-C144-88FF-96B1431FCE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -547,12 +547,12 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,7 +584,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -598,25 +598,25 @@
         <v>13</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -630,25 +630,25 @@
         <v>15</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -662,25 +662,25 @@
         <v>16</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -741,10 +741,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -773,10 +773,10 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -805,10 +805,10 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -837,10 +837,10 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -904,7 +904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -936,7 +936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -968,7 +968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>51</v>
       </c>
